--- a/Flights.xlsx
+++ b/Flights.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="741" activeTab="5"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="741" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FlightHome" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209">
   <si>
     <t>Track State</t>
   </si>
@@ -40,7 +40,7 @@
     <t>Parameter</t>
   </si>
   <si>
-    <t>Expected</t>
+    <t>Value</t>
   </si>
   <si>
     <t>adobe.content.pagename</t>
@@ -206,9 +206,6 @@
   </si>
   <si>
     <t>SRP Track Action (roundtrip case - No Search Result Found)</t>
-  </si>
-  <si>
-    <t>Value</t>
   </si>
   <si>
     <t>yt:flight:dom:srp</t>
@@ -502,12 +499,12 @@
     <t>&lt;promo code applied&gt;</t>
   </si>
   <si>
-    <t>adobe.review.dep.diffrence</t>
-  </si>
-  <si>
     <t>adobe.review.ret.diffrence</t>
   </si>
   <si>
+    <t>Track State (Login page)</t>
+  </si>
+  <si>
     <t>Track Action (in case of guest booking or guest checkout)</t>
   </si>
   <si>
@@ -520,6 +517,9 @@
     <t>login</t>
   </si>
   <si>
+    <t>guest</t>
+  </si>
+  <si>
     <t>adobe.event.guestcheckout</t>
   </si>
   <si>
@@ -538,64 +538,70 @@
     <t>select guest</t>
   </si>
   <si>
+    <t>travellers</t>
+  </si>
+  <si>
+    <t>adobe.event.sguest</t>
+  </si>
+  <si>
+    <t>adobe.event.inscheck</t>
+  </si>
+  <si>
+    <t>1 (when continue with insurance or insurance selected)</t>
+  </si>
+  <si>
+    <t>adobe.event.insnotcheck</t>
+  </si>
+  <si>
+    <t>1 (when risk travel or not selected insurance)</t>
+  </si>
+  <si>
+    <t>adobe.event.travel</t>
+  </si>
+  <si>
+    <t>adobe.review.checkouttype</t>
+  </si>
+  <si>
+    <t>ai:50-ai:543</t>
+  </si>
+  <si>
+    <t>ai:10-ai:30</t>
+  </si>
+  <si>
+    <t>Track State (Payment page)</t>
+  </si>
+  <si>
+    <t>Track State (Payment Mode page)</t>
+  </si>
+  <si>
+    <t>Track Action (On Click Of Pay Now)</t>
+  </si>
+  <si>
+    <t>Track Action (when app is backgrounded)</t>
+  </si>
+  <si>
+    <t>Track Action (when click on "I" button for checking itinerary)</t>
+  </si>
+  <si>
+    <t>yt:flight:dom:checkout:payment</t>
+  </si>
+  <si>
+    <t>yt:flight:dom:checkout:payment:wallets</t>
+  </si>
+  <si>
+    <t>pay now</t>
+  </si>
+  <si>
+    <t>app background</t>
+  </si>
+  <si>
+    <t>check itinerary</t>
+  </si>
+  <si>
     <t>payment</t>
   </si>
   <si>
-    <t>adobe.event.sguest</t>
-  </si>
-  <si>
-    <t>adobe.event.inscheck</t>
-  </si>
-  <si>
-    <t>1 (when continue with insurance or insurance selected)</t>
-  </si>
-  <si>
-    <t>adobe.event.insnotcheck</t>
-  </si>
-  <si>
-    <t>1 (when risk travel or not selected insurance)</t>
-  </si>
-  <si>
-    <t>adobe.event.travel</t>
-  </si>
-  <si>
-    <t>adobe.review.checkouttype</t>
-  </si>
-  <si>
-    <t>ai:50-ai:543</t>
-  </si>
-  <si>
-    <t>ai:10-ai:30</t>
-  </si>
-  <si>
-    <t>Track State (Payment page)</t>
-  </si>
-  <si>
-    <t>Track State (Payment Mode page)</t>
-  </si>
-  <si>
-    <t>Track Action (On Click Of Pay Now)</t>
-  </si>
-  <si>
-    <t>Track Action (when app is backgrounded)</t>
-  </si>
-  <si>
-    <t>yt:flight:dom:checkout:payment</t>
-  </si>
-  <si>
-    <t>yt:flight:dom:checkout:payment:&lt;payment method&gt;</t>
-  </si>
-  <si>
-    <t>yt:flight:dom:checkout:payment:&lt;payment method selected&gt;</t>
-  </si>
-  <si>
-    <t>app background</t>
-  </si>
-  <si>
-    <t>check itinerary</t>
-  </si>
-  <si>
-    <t>&lt;payment method selected&gt;</t>
+    <t>wallets</t>
   </si>
   <si>
     <t>adobe.event.paynow</t>
@@ -810,6 +816,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -823,15 +836,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -858,25 +864,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,31 +894,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,6 +925,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,19 +966,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,7 +990,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,19 +1020,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,18 +1045,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1391,152 +1391,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1593,39 +1593,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1633,6 +1600,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1646,12 +1628,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1977,7 +1955,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2021,66 +1999,66 @@
       <c r="N1" s="2"/>
     </row>
     <row r="2" ht="15.75" spans="1:14">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="M3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="49" t="s">
+      <c r="N3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2117,34 +2095,34 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="49" t="s">
+      <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="49" t="s">
+      <c r="M5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="49" t="s">
+      <c r="N5" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2181,66 +2159,66 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="49" t="s">
+      <c r="H7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="49" t="s">
+      <c r="J7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="49" t="s">
+      <c r="K7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="49" t="s">
+      <c r="M7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="49" t="s">
+      <c r="N7" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="49" t="s">
+      <c r="H8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="49" t="s">
+      <c r="K8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="49" t="s">
+      <c r="M8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="49" t="s">
+      <c r="N8" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2251,36 +2229,36 @@
       <c r="B9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="49" t="s">
+      <c r="H9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="49" t="s">
+      <c r="J9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="49" t="s">
+      <c r="K9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M9" s="49" t="s">
+      <c r="M9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="49" t="s">
+      <c r="N9" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="7">
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -2309,28 +2287,28 @@
       </c>
     </row>
     <row r="11" spans="4:14">
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="7">
         <v>1</v>
       </c>
-      <c r="G11" s="49" t="s">
+      <c r="G11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="49">
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="J11" s="49" t="s">
+      <c r="J11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="49">
+      <c r="K11" s="7">
         <v>1</v>
       </c>
-      <c r="M11" s="49" t="s">
+      <c r="M11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="49">
+      <c r="N11" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2424,10 +2402,10 @@
   <sheetPr/>
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2503,55 +2481,55 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -2559,57 +2537,57 @@
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M3" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="34" t="s">
         <v>9</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" s="34" t="s">
         <v>9</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="S3" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" s="34" t="s">
         <v>9</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U3" s="10"/>
-      <c r="V3" s="42" t="s">
+      <c r="V3" s="34" t="s">
         <v>9</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X3" s="10"/>
       <c r="Y3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -2675,57 +2653,57 @@
         <v>16</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U5" s="10"/>
       <c r="V5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X5" s="10"/>
       <c r="Y5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="Z5" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -2907,57 +2885,57 @@
         <v>32</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>32</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U9" s="10"/>
       <c r="V9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X9" s="10"/>
       <c r="Y9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="Z9" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -2980,10 +2958,10 @@
         <v>29</v>
       </c>
       <c r="J10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M10" s="11" t="s">
         <v>28</v>
@@ -3026,13 +3004,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" s="7">
         <v>1</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3044,77 +3022,77 @@
         <v>29</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N11" s="7">
         <v>1</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7">
         <v>1</v>
       </c>
       <c r="S11" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T11" s="21">
         <v>1</v>
       </c>
-      <c r="U11" s="47"/>
+      <c r="U11" s="10"/>
       <c r="V11" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W11" s="21">
         <v>1</v>
       </c>
       <c r="X11" s="10"/>
       <c r="Y11" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z11" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="12" ht="90.75" spans="1:26">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37" t="s">
+      <c r="F12" s="31"/>
+      <c r="G12" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="36">
+        <v>1</v>
+      </c>
+      <c r="M12" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="44">
-        <v>1</v>
-      </c>
-      <c r="M12" s="45" t="s">
+      <c r="N12" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="N12" s="46" t="s">
+      <c r="P12" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="45" t="s">
+      <c r="Q12" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="Q12" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y12" s="37" t="s">
+      <c r="Y12" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="Z12" s="38" t="s">
+      <c r="Z12" s="33" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3126,7 +3104,7 @@
         <v>41</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>41</v>
@@ -3146,7 +3124,7 @@
         <v>43</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>43</v>
@@ -3162,19 +3140,19 @@
       <c r="D15" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="26" t="s">
         <v>45</v>
       </c>
       <c r="G15" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="26" t="s">
         <v>89</v>
-      </c>
-      <c r="H15" s="39" t="s">
-        <v>90</v>
       </c>
       <c r="Y15" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="Z15" s="39" t="s">
+      <c r="Z15" s="26" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3182,19 +3160,19 @@
       <c r="D16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="26" t="s">
         <v>47</v>
       </c>
       <c r="G16" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="26" t="s">
         <v>91</v>
-      </c>
-      <c r="H16" s="39" t="s">
-        <v>92</v>
       </c>
       <c r="Y16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="Z16" s="39" t="s">
+      <c r="Z16" s="26" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3206,7 +3184,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H17" s="12">
         <v>3</v>
@@ -3226,7 +3204,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H18" s="12">
         <v>2</v>
@@ -3246,7 +3224,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H19" s="12">
         <v>1</v>
@@ -3265,11 +3243,11 @@
       <c r="E20" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="H20" s="41" t="s">
-        <v>97</v>
       </c>
       <c r="Y20" s="11" t="s">
         <v>51</v>
@@ -3280,177 +3258,177 @@
     </row>
     <row r="21" spans="4:26">
       <c r="D21" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E21" s="12">
         <v>123</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="H21" s="29" t="s">
+      <c r="Y21" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z21" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="Y21" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z21" s="12" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="22" ht="15.75" spans="4:26">
       <c r="D22" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E22" s="17">
         <v>321</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y22" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z22" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="7:8">
+      <c r="G23" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H22" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y22" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z22" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="7:8">
-      <c r="G23" s="26" t="s">
+      <c r="H23" s="29">
+        <v>0.899305555555555</v>
+      </c>
+    </row>
+    <row r="24" spans="7:8">
+      <c r="G24" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="32">
-        <v>0.899305555555555</v>
-      </c>
-    </row>
-    <row r="24" spans="7:8">
-      <c r="G24" s="26" t="s">
+      <c r="H24" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="H24" s="27" t="s">
+    </row>
+    <row r="25" spans="7:8">
+      <c r="G25" s="11" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="25" spans="7:8">
-      <c r="G25" s="26" t="s">
+      <c r="H25" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="7:8">
+      <c r="G26" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="7:8">
-      <c r="G26" s="26" t="s">
+      <c r="H26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="H26" s="28" t="s">
+    </row>
+    <row r="27" spans="7:8">
+      <c r="G27" s="11" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="27" spans="7:8">
-      <c r="G27" s="26" t="s">
+      <c r="H27" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="H27" s="29" t="s">
+    </row>
+    <row r="28" spans="7:8">
+      <c r="G28" s="11" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="28" spans="7:8">
-      <c r="G28" s="26" t="s">
+      <c r="H28" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="7:8">
+      <c r="G29" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="H28" s="29">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="7:8">
-      <c r="G29" s="26" t="s">
+      <c r="H29" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="7:8">
+      <c r="G30" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H29" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="7:8">
-      <c r="G30" s="26" t="s">
+      <c r="H30" s="12">
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="31" spans="7:8">
+      <c r="G31" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="H30" s="29">
-        <v>15200</v>
-      </c>
-    </row>
-    <row r="31" spans="7:8">
-      <c r="G31" s="26" t="s">
+      <c r="H31" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="7:8">
+      <c r="G32" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="H31" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="7:8">
-      <c r="G32" s="26" t="s">
+      <c r="H32" s="29">
+        <v>0.291666666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8">
+      <c r="G33" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="H32" s="32">
-        <v>0.291666666666667</v>
-      </c>
-    </row>
-    <row r="33" spans="7:8">
-      <c r="G33" s="26" t="s">
+      <c r="H33" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8">
+      <c r="G34" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="H33" s="27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="7:8">
-      <c r="G34" s="26" t="s">
+      <c r="H34" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8">
+      <c r="G35" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H34" s="28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="7:8">
-      <c r="G35" s="26" t="s">
+      <c r="H35" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="H35" s="28" t="s">
+    </row>
+    <row r="36" spans="7:8">
+      <c r="G36" s="11" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="36" spans="7:8">
-      <c r="G36" s="26" t="s">
+      <c r="H36" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="7:8">
+      <c r="G37" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="H36" s="29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="7:8">
-      <c r="G37" s="26" t="s">
+      <c r="H37" s="12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="7:8">
+      <c r="G38" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H37" s="29">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="7:8">
-      <c r="G38" s="26" t="s">
+      <c r="H38" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" spans="7:8">
+      <c r="G39" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="H38" s="29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" spans="7:8">
-      <c r="G39" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="H39" s="34">
+      <c r="H39" s="17">
         <v>15555</v>
       </c>
     </row>
@@ -3477,7 +3455,7 @@
   <dimension ref="A1:AC41"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3515,43 +3493,43 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:29">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E1" s="2"/>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H1" s="2"/>
       <c r="J1" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K1" s="2"/>
       <c r="M1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N1" s="2"/>
       <c r="P1" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q1" s="2"/>
       <c r="S1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T1" s="2"/>
       <c r="V1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W1" s="2"/>
       <c r="Y1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z1" s="2"/>
       <c r="AB1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC1" s="2"/>
     </row>
@@ -3560,61 +3538,61 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -3622,70 +3600,70 @@
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O3" s="10"/>
       <c r="P3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R3" s="10"/>
       <c r="S3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U3" s="10"/>
       <c r="V3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X3" s="10"/>
       <c r="Y3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA3" s="10"/>
       <c r="AB3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -3764,70 +3742,70 @@
         <v>16</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R5" s="10"/>
       <c r="S5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U5" s="10"/>
       <c r="V5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X5" s="10"/>
       <c r="Y5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="Z5" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA5" s="10"/>
       <c r="AB5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="AC5" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -4048,78 +4026,78 @@
         <v>32</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O9" s="10"/>
       <c r="P9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R9" s="10"/>
       <c r="S9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U9" s="10"/>
       <c r="V9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X9" s="10"/>
       <c r="Y9" s="6" t="s">
         <v>32</v>
       </c>
       <c r="Z9" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA9" s="10"/>
       <c r="AB9" s="6" t="s">
         <v>32</v>
       </c>
       <c r="AC9" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="11" t="s">
@@ -4172,17 +4150,17 @@
       </c>
       <c r="X10" s="10"/>
       <c r="Y10" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA10" s="10"/>
       <c r="AB10" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC10" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:29">
@@ -4194,99 +4172,99 @@
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E11" s="7">
         <v>1</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K11" s="7">
         <v>1</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N11" s="7">
         <v>1</v>
       </c>
       <c r="O11" s="10"/>
       <c r="P11" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q11" s="21">
         <v>1</v>
       </c>
       <c r="R11" s="10"/>
       <c r="S11" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T11" s="21">
         <v>1</v>
       </c>
       <c r="U11" s="10"/>
       <c r="V11" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="W11" s="21">
         <v>1</v>
       </c>
       <c r="X11" s="10"/>
       <c r="Y11" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z11" s="30" t="s">
         <v>153</v>
-      </c>
-      <c r="Z11" s="35" t="s">
-        <v>154</v>
       </c>
       <c r="AA11" s="10"/>
       <c r="AB11" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC11" s="35" t="s">
-        <v>155</v>
+        <v>152</v>
+      </c>
+      <c r="AC11" s="30" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:29">
       <c r="A12" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B12" s="7">
         <v>1</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>157</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>158</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12" s="23" t="s">
         <v>157</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>158</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="K12" s="23" t="s">
         <v>157</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>158</v>
       </c>
       <c r="L12" s="15"/>
       <c r="M12" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N12" s="7">
         <v>1</v>
@@ -4333,10 +4311,10 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="N13" s="23" t="s">
         <v>157</v>
-      </c>
-      <c r="N13" s="23" t="s">
-        <v>158</v>
       </c>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
@@ -4364,225 +4342,225 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="26" t="s">
+      <c r="B16" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="26" t="s">
+      <c r="B17" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="28" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="26" t="s">
+      <c r="B18" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="28" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="11" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="26" t="s">
+      <c r="B19" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="26" t="s">
+      <c r="B20" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B21" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="29">
+        <v>0.899305555555555</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" s="32">
-        <v>0.899305555555555</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="26" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="12">
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="29">
+        <v>0.291666666666667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="26" t="s">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="28" t="s">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="11" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="26" t="s">
+      <c r="B38" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="B30" s="29">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" s="29">
-        <v>15200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="B34" s="32">
-        <v>0.291666666666667</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="B39" s="29">
+      <c r="A39" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" s="12">
         <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" spans="1:2">
+      <c r="A41" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B40" s="29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" spans="1:2">
-      <c r="A41" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="B41" s="34">
+      <c r="B41" s="17">
         <v>15555</v>
       </c>
     </row>
@@ -4610,7 +4588,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -4624,11 +4602,11 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E1" s="2"/>
     </row>
@@ -4637,13 +4615,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4651,14 +4629,14 @@
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4681,14 +4659,14 @@
         <v>16</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4741,29 +4719,29 @@
         <v>32</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:5">
@@ -4771,7 +4749,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="20" t="s">
@@ -4835,13 +4813,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4879,14 +4857,14 @@
         <v>16</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4939,7 +4917,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="6" t="s">
@@ -4951,7 +4929,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>171</v>
@@ -5036,7 +5014,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>179</v>
@@ -5047,7 +5025,7 @@
     </row>
     <row r="18" ht="15.75" spans="1:5">
       <c r="A18" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>180</v>
@@ -5071,8 +5049,8 @@
   <sheetPr/>
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:N4"/>
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5111,7 +5089,7 @@
       </c>
       <c r="K1" s="2"/>
       <c r="M1" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N1" s="2"/>
     </row>
@@ -5120,31 +5098,31 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -5152,14 +5130,14 @@
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="4" t="s">
@@ -5173,14 +5151,14 @@
         <v>9</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O3" s="10"/>
     </row>
@@ -5226,35 +5204,35 @@
         <v>16</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O5" s="10"/>
     </row>
@@ -5374,51 +5352,51 @@
         <v>32</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>66</v>
+        <v>188</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O9" s="10"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="11" t="s">
@@ -5452,28 +5430,28 @@
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="20" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K11" s="21">
         <v>1</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="20" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N11" s="21">
         <v>1</v>
@@ -5482,10 +5460,10 @@
     </row>
     <row r="12" ht="15.75" spans="1:15">
       <c r="A12" s="13" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="11" t="s">
@@ -5496,10 +5474,10 @@
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="16" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="10"/>
@@ -5511,17 +5489,17 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="13" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="13" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -5536,17 +5514,17 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B14" s="19">
         <v>1</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="13" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -5607,7 +5585,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>179</v>
@@ -5628,7 +5606,7 @@
     </row>
     <row r="18" ht="15.75" spans="1:15">
       <c r="A18" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>180</v>
@@ -5665,8 +5643,8 @@
   <sheetPr/>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -5677,7 +5655,7 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -5686,7 +5664,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5694,7 +5672,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5710,7 +5688,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5742,15 +5720,15 @@
         <v>32</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5763,7 +5741,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B12" s="7">
         <v>1</v>
@@ -5779,10 +5757,10 @@
     </row>
     <row r="14" ht="15.75" spans="1:2">
       <c r="A14" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
